--- a/data/pca/factorExposure/factorExposure_2019-04-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-04-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.130182252324814</v>
+        <v>0.07843887283932201</v>
       </c>
       <c r="C2">
-        <v>0.005321074387824941</v>
+        <v>0.03930125367705982</v>
       </c>
       <c r="D2">
-        <v>-0.03696799583355364</v>
+        <v>0.01166438505925701</v>
       </c>
       <c r="E2">
-        <v>-0.1104905130678483</v>
+        <v>-0.03500208620240727</v>
       </c>
       <c r="F2">
-        <v>0.1025457265189296</v>
+        <v>0.1431493555378718</v>
       </c>
       <c r="G2">
-        <v>-0.02567842949533497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1100335756262346</v>
+      </c>
+      <c r="H2">
+        <v>0.05185945107962391</v>
+      </c>
+      <c r="I2">
+        <v>-0.02145695020404361</v>
+      </c>
+      <c r="J2">
+        <v>-0.07776049253685173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2230315595489605</v>
+        <v>0.1695167033973411</v>
       </c>
       <c r="C3">
-        <v>-0.1059345376954564</v>
+        <v>0.09170390103676673</v>
       </c>
       <c r="D3">
-        <v>0.06902430970534677</v>
+        <v>-0.03507341486072266</v>
       </c>
       <c r="E3">
-        <v>-0.311802476327172</v>
+        <v>0.03228638472890068</v>
       </c>
       <c r="F3">
-        <v>0.009763807518237303</v>
+        <v>0.3664061350111423</v>
       </c>
       <c r="G3">
-        <v>-0.1286952333212988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.09136370334627295</v>
+      </c>
+      <c r="H3">
+        <v>0.2805529111020711</v>
+      </c>
+      <c r="I3">
+        <v>-0.1823976259394963</v>
+      </c>
+      <c r="J3">
+        <v>-0.2837333395063721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09974734566199464</v>
+        <v>0.07475328987914397</v>
       </c>
       <c r="C4">
-        <v>-0.03330660828566229</v>
+        <v>0.03892973692636769</v>
       </c>
       <c r="D4">
-        <v>-0.02162138334252339</v>
+        <v>-0.02899061223755871</v>
       </c>
       <c r="E4">
-        <v>-0.07776078104239081</v>
+        <v>-0.02941622091445885</v>
       </c>
       <c r="F4">
-        <v>0.03549931233366901</v>
+        <v>0.08294130849616269</v>
       </c>
       <c r="G4">
-        <v>-0.04182678875595371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04478428221638085</v>
+      </c>
+      <c r="H4">
+        <v>0.02387199408630639</v>
+      </c>
+      <c r="I4">
+        <v>-0.0280833893610942</v>
+      </c>
+      <c r="J4">
+        <v>-0.0639302594455109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01732105159213389</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.007273573191085929</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.009206748346360248</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.00383247371627526</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.001535181600991277</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02109613872634203</v>
+      </c>
+      <c r="H6">
+        <v>0.003377672028110249</v>
+      </c>
+      <c r="I6">
+        <v>0.01075830292183463</v>
+      </c>
+      <c r="J6">
+        <v>-0.001272615456113853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04345082137246646</v>
+        <v>0.03558195461699272</v>
       </c>
       <c r="C7">
-        <v>-0.006272976305289541</v>
+        <v>0.007091784106137218</v>
       </c>
       <c r="D7">
-        <v>-0.02892955157340868</v>
+        <v>-0.04078645131600506</v>
       </c>
       <c r="E7">
-        <v>-0.07530076961938419</v>
+        <v>-0.02494200759218254</v>
       </c>
       <c r="F7">
-        <v>-0.05134401854265178</v>
+        <v>0.05581687513006556</v>
       </c>
       <c r="G7">
-        <v>-0.0002531820891599467</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.005527897890529836</v>
+      </c>
+      <c r="H7">
+        <v>0.04548288054274316</v>
+      </c>
+      <c r="I7">
+        <v>0.01134657296899729</v>
+      </c>
+      <c r="J7">
+        <v>-0.04949532758887008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04320151736520027</v>
+        <v>0.03017274784418549</v>
       </c>
       <c r="C8">
-        <v>-0.04415136321308836</v>
+        <v>0.04163470969624598</v>
       </c>
       <c r="D8">
-        <v>0.0002268722785621517</v>
+        <v>-0.02887481415954342</v>
       </c>
       <c r="E8">
-        <v>-0.07026034883532738</v>
+        <v>-0.009710642002060774</v>
       </c>
       <c r="F8">
-        <v>0.005888377649265802</v>
+        <v>0.07330612914377627</v>
       </c>
       <c r="G8">
-        <v>-0.02198434166884695</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02087917065595932</v>
+      </c>
+      <c r="H8">
+        <v>0.04908165344113595</v>
+      </c>
+      <c r="I8">
+        <v>-0.02740784046174981</v>
+      </c>
+      <c r="J8">
+        <v>-0.06758122981075498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.0877071269733274</v>
+        <v>0.06170278360973008</v>
       </c>
       <c r="C9">
-        <v>-0.03344112757861321</v>
+        <v>0.03365061183147481</v>
       </c>
       <c r="D9">
-        <v>-0.02910941380193469</v>
+        <v>-0.0318407377380689</v>
       </c>
       <c r="E9">
-        <v>-0.06342259047397435</v>
+        <v>-0.02635498310975896</v>
       </c>
       <c r="F9">
-        <v>0.0241952722193358</v>
+        <v>0.08354293860309957</v>
       </c>
       <c r="G9">
-        <v>-0.05738541875484392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04303970584450235</v>
+      </c>
+      <c r="H9">
+        <v>0.0198380625159694</v>
+      </c>
+      <c r="I9">
+        <v>-0.0105777303166628</v>
+      </c>
+      <c r="J9">
+        <v>-0.04022219964836543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.003022407250749224</v>
+        <v>0.02024037575675217</v>
       </c>
       <c r="C10">
-        <v>0.1575933107617692</v>
+        <v>-0.1425758067500205</v>
       </c>
       <c r="D10">
-        <v>0.01851969211775634</v>
+        <v>0.06399389053813423</v>
       </c>
       <c r="E10">
-        <v>-0.06699155336151261</v>
+        <v>0.01577260546914788</v>
       </c>
       <c r="F10">
-        <v>0.01685694007008072</v>
+        <v>0.07077709334419988</v>
       </c>
       <c r="G10">
-        <v>0.02127938356015844</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02357268815987705</v>
+      </c>
+      <c r="H10">
+        <v>-0.001791270042722657</v>
+      </c>
+      <c r="I10">
+        <v>-0.1119987883711894</v>
+      </c>
+      <c r="J10">
+        <v>-0.01205184184862941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05800226645218011</v>
+        <v>0.04926394747983292</v>
       </c>
       <c r="C11">
-        <v>-0.00662042287888653</v>
+        <v>0.02719152765502789</v>
       </c>
       <c r="D11">
-        <v>0.01099758616323803</v>
+        <v>-0.001709985180921631</v>
       </c>
       <c r="E11">
-        <v>-0.03906688774087964</v>
+        <v>-0.003537702529704748</v>
       </c>
       <c r="F11">
-        <v>0.007750010104540903</v>
+        <v>0.04004229408073518</v>
       </c>
       <c r="G11">
-        <v>0.0211081128008633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.009075848597889759</v>
+      </c>
+      <c r="H11">
+        <v>0.001511188794183821</v>
+      </c>
+      <c r="I11">
+        <v>0.02072786679815293</v>
+      </c>
+      <c r="J11">
+        <v>-0.04138576572194976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.0448843237569834</v>
+        <v>0.04680929374701811</v>
       </c>
       <c r="C12">
-        <v>-0.01358168899105584</v>
+        <v>0.02190647693765891</v>
       </c>
       <c r="D12">
-        <v>0.006506461074125012</v>
+        <v>-0.01139733329783582</v>
       </c>
       <c r="E12">
-        <v>-0.0280734449145825</v>
+        <v>-0.006623251072167923</v>
       </c>
       <c r="F12">
-        <v>-0.001397868577680197</v>
+        <v>0.01766899650074885</v>
       </c>
       <c r="G12">
-        <v>-0.0002848729292971279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0003285529707126672</v>
+      </c>
+      <c r="H12">
+        <v>0.002260343528833906</v>
+      </c>
+      <c r="I12">
+        <v>0.01766808197202932</v>
+      </c>
+      <c r="J12">
+        <v>-0.02502786101235637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06316168134909321</v>
+        <v>0.0422375606774878</v>
       </c>
       <c r="C13">
-        <v>-0.01821345155756468</v>
+        <v>0.02978720602625813</v>
       </c>
       <c r="D13">
-        <v>0.01907204399949877</v>
+        <v>0.005854485363708066</v>
       </c>
       <c r="E13">
-        <v>-0.1057929398657297</v>
+        <v>-0.002871230516688372</v>
       </c>
       <c r="F13">
-        <v>0.01623267799127589</v>
+        <v>0.1049403551834415</v>
       </c>
       <c r="G13">
-        <v>-0.000575883609940473</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02330574313990911</v>
+      </c>
+      <c r="H13">
+        <v>0.04782949950207806</v>
+      </c>
+      <c r="I13">
+        <v>-0.001130374292504195</v>
+      </c>
+      <c r="J13">
+        <v>-0.06028874998066858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03879094340164704</v>
+        <v>0.02929820717287177</v>
       </c>
       <c r="C14">
-        <v>-0.008624586463798071</v>
+        <v>0.0152886493603209</v>
       </c>
       <c r="D14">
-        <v>-0.02145401149794941</v>
+        <v>-0.01193541316000623</v>
       </c>
       <c r="E14">
-        <v>-0.01886431044253381</v>
+        <v>-0.02336989907002066</v>
       </c>
       <c r="F14">
-        <v>0.001776508938714176</v>
+        <v>0.03816541807839912</v>
       </c>
       <c r="G14">
-        <v>0.02232675106723996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02974151323939189</v>
+      </c>
+      <c r="H14">
+        <v>0.05093586879766984</v>
+      </c>
+      <c r="I14">
+        <v>-0.007669140631954195</v>
+      </c>
+      <c r="J14">
+        <v>-0.01845502358009218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.04790724504426732</v>
+        <v>0.04447891246759409</v>
       </c>
       <c r="C16">
-        <v>-0.0225881520025379</v>
+        <v>0.03240944483629685</v>
       </c>
       <c r="D16">
-        <v>0.01463891070228529</v>
+        <v>-0.009911874435041483</v>
       </c>
       <c r="E16">
-        <v>-0.03310837894687955</v>
+        <v>0.0001549010384922453</v>
       </c>
       <c r="F16">
-        <v>-0.004757817562618802</v>
+        <v>0.03361902287892601</v>
       </c>
       <c r="G16">
-        <v>0.005719489429079449</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.003447067681922792</v>
+      </c>
+      <c r="H16">
+        <v>0.008092126956820624</v>
+      </c>
+      <c r="I16">
+        <v>0.0181553877944516</v>
+      </c>
+      <c r="J16">
+        <v>-0.03389363161392258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.05311280394442475</v>
+        <v>0.0476289879244905</v>
       </c>
       <c r="C19">
-        <v>-0.02982791049804512</v>
+        <v>0.04254728434590074</v>
       </c>
       <c r="D19">
-        <v>0.01164429714392848</v>
+        <v>-0.01374652668937353</v>
       </c>
       <c r="E19">
-        <v>-0.07095445159388419</v>
+        <v>-0.01062590469251008</v>
       </c>
       <c r="F19">
-        <v>-0.01533072708461812</v>
+        <v>0.08247295213196831</v>
       </c>
       <c r="G19">
-        <v>0.02637930842252974</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.01189033566188039</v>
+      </c>
+      <c r="H19">
+        <v>0.08372717346532328</v>
+      </c>
+      <c r="I19">
+        <v>-0.02854553201884902</v>
+      </c>
+      <c r="J19">
+        <v>-0.05172467533097113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03823052974553344</v>
+        <v>0.01925138590712433</v>
       </c>
       <c r="C20">
-        <v>-0.03755045703173758</v>
+        <v>0.02814220415829197</v>
       </c>
       <c r="D20">
-        <v>-0.009392885682198449</v>
+        <v>-0.01790828791199062</v>
       </c>
       <c r="E20">
-        <v>-0.06239206780840984</v>
+        <v>-0.01512332409740709</v>
       </c>
       <c r="F20">
-        <v>-0.01390803588717348</v>
+        <v>0.06838189398675699</v>
       </c>
       <c r="G20">
-        <v>0.006941387256674502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.0162570606866684</v>
+      </c>
+      <c r="H20">
+        <v>0.071595271004132</v>
+      </c>
+      <c r="I20">
+        <v>-0.01143048958867912</v>
+      </c>
+      <c r="J20">
+        <v>-0.0826457361918506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.04102153577110711</v>
+        <v>0.02366498572049983</v>
       </c>
       <c r="C21">
-        <v>-0.02082241389753021</v>
+        <v>0.02478413982940736</v>
       </c>
       <c r="D21">
-        <v>0.00188333913902503</v>
+        <v>-0.02561614337540777</v>
       </c>
       <c r="E21">
-        <v>-0.09351719819477371</v>
+        <v>-0.0004409022317372174</v>
       </c>
       <c r="F21">
-        <v>0.04808855829523925</v>
+        <v>0.07776009435881419</v>
       </c>
       <c r="G21">
-        <v>0.004615675239080388</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03440376525823947</v>
+      </c>
+      <c r="H21">
+        <v>0.02585644797224881</v>
+      </c>
+      <c r="I21">
+        <v>0.01408635979903877</v>
+      </c>
+      <c r="J21">
+        <v>-0.0305889242764984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04951064883837955</v>
+        <v>0.04342840600139364</v>
       </c>
       <c r="C24">
-        <v>-0.01554006630766856</v>
+        <v>0.0223263343276481</v>
       </c>
       <c r="D24">
-        <v>0.005188288757924686</v>
+        <v>-0.00600178020833262</v>
       </c>
       <c r="E24">
-        <v>-0.04280729652899791</v>
+        <v>-0.005200188098684489</v>
       </c>
       <c r="F24">
-        <v>-0.002283594427169311</v>
+        <v>0.04047100297935563</v>
       </c>
       <c r="G24">
-        <v>0.0009742161962865442</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.003139686776228032</v>
+      </c>
+      <c r="H24">
+        <v>0.006435611877057808</v>
+      </c>
+      <c r="I24">
+        <v>0.0168809922950525</v>
+      </c>
+      <c r="J24">
+        <v>-0.04134501098177777</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05005438123006174</v>
+        <v>0.04577511020684119</v>
       </c>
       <c r="C25">
-        <v>-0.005893965421535652</v>
+        <v>0.02236313580860336</v>
       </c>
       <c r="D25">
-        <v>0.007765960647715531</v>
+        <v>-0.005107571012055547</v>
       </c>
       <c r="E25">
-        <v>-0.0412499208892515</v>
+        <v>-0.003247711392159373</v>
       </c>
       <c r="F25">
-        <v>0.007538725495298527</v>
+        <v>0.04440901628529424</v>
       </c>
       <c r="G25">
-        <v>0.009349357279656469</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.003877554785983765</v>
+      </c>
+      <c r="H25">
+        <v>0.001068329650924103</v>
+      </c>
+      <c r="I25">
+        <v>0.01781510208942282</v>
+      </c>
+      <c r="J25">
+        <v>-0.03233958917080289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.01448857958091501</v>
+        <v>0.01650788606649565</v>
       </c>
       <c r="C26">
-        <v>-0.0259876921658808</v>
+        <v>0.02404333460163005</v>
       </c>
       <c r="D26">
-        <v>-0.0007672062552336033</v>
+        <v>-0.004572477397872278</v>
       </c>
       <c r="E26">
-        <v>-0.03594806765403635</v>
+        <v>0.001983509078170591</v>
       </c>
       <c r="F26">
-        <v>0.01687945678908257</v>
+        <v>0.0440008463479756</v>
       </c>
       <c r="G26">
-        <v>0.01765804721240838</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02054423834576213</v>
+      </c>
+      <c r="H26">
+        <v>0.02973874710757076</v>
+      </c>
+      <c r="I26">
+        <v>0.009913564455659472</v>
+      </c>
+      <c r="J26">
+        <v>-0.03718251663644408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1144732691387583</v>
+        <v>0.08007473267591432</v>
       </c>
       <c r="C27">
-        <v>-0.02279099880763505</v>
+        <v>0.03014626812063692</v>
       </c>
       <c r="D27">
-        <v>-0.01448868133803175</v>
+        <v>-0.01323840298142906</v>
       </c>
       <c r="E27">
-        <v>-0.1012614008497491</v>
+        <v>-0.02776796286608132</v>
       </c>
       <c r="F27">
-        <v>0.01227873592987688</v>
+        <v>0.07341180281396197</v>
       </c>
       <c r="G27">
-        <v>-0.01014799290722391</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01730909253956537</v>
+      </c>
+      <c r="H27">
+        <v>0.007163627933538248</v>
+      </c>
+      <c r="I27">
+        <v>-0.01080238805389875</v>
+      </c>
+      <c r="J27">
+        <v>-0.04657816634774948</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.000131416091023645</v>
+        <v>0.03731133703665473</v>
       </c>
       <c r="C28">
-        <v>0.2441997362464311</v>
+        <v>-0.2211322855942096</v>
       </c>
       <c r="D28">
-        <v>0.01991994276302541</v>
+        <v>0.08835979479865666</v>
       </c>
       <c r="E28">
-        <v>-0.0412916641676276</v>
+        <v>0.02576190461576375</v>
       </c>
       <c r="F28">
-        <v>0.01955688016026262</v>
+        <v>0.05723100903380355</v>
       </c>
       <c r="G28">
-        <v>-0.0003275131989314761</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02656433440307724</v>
+      </c>
+      <c r="H28">
+        <v>-0.009404046748273038</v>
+      </c>
+      <c r="I28">
+        <v>-0.1554836689057011</v>
+      </c>
+      <c r="J28">
+        <v>-0.02684971880973692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02396295750799349</v>
+        <v>0.02166698545284274</v>
       </c>
       <c r="C29">
-        <v>-0.016342825609694</v>
+        <v>0.01724248012611219</v>
       </c>
       <c r="D29">
-        <v>-0.02437521241554426</v>
+        <v>-0.01690679294714107</v>
       </c>
       <c r="E29">
-        <v>-0.02490116933494386</v>
+        <v>-0.02264306382339431</v>
       </c>
       <c r="F29">
-        <v>0.01468428446501809</v>
+        <v>0.03794702686530232</v>
       </c>
       <c r="G29">
-        <v>0.01817291505458907</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03326665135141534</v>
+      </c>
+      <c r="H29">
+        <v>0.0473045541788534</v>
+      </c>
+      <c r="I29">
+        <v>0.003200704142496951</v>
+      </c>
+      <c r="J29">
+        <v>-0.00918218718158881</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1064710726256081</v>
+        <v>0.09407342788727817</v>
       </c>
       <c r="C30">
-        <v>-0.0137186355250045</v>
+        <v>0.05608212629553882</v>
       </c>
       <c r="D30">
-        <v>-0.01504540251516854</v>
+        <v>0.02101477348528312</v>
       </c>
       <c r="E30">
-        <v>-0.1163706131755233</v>
+        <v>-0.02751709057849644</v>
       </c>
       <c r="F30">
-        <v>0.00813161524020754</v>
+        <v>0.1010767235844577</v>
       </c>
       <c r="G30">
-        <v>0.03746959736898309</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01411628095277361</v>
+      </c>
+      <c r="H30">
+        <v>0.01667414117733539</v>
+      </c>
+      <c r="I30">
+        <v>0.01796378070923501</v>
+      </c>
+      <c r="J30">
+        <v>-0.03346671498956217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.06008187839620542</v>
+        <v>0.06291359516977604</v>
       </c>
       <c r="C31">
-        <v>-0.01459179848031479</v>
+        <v>0.02497477656503378</v>
       </c>
       <c r="D31">
-        <v>-0.02035577641649323</v>
+        <v>0.003597975208579202</v>
       </c>
       <c r="E31">
-        <v>0.01710113269121566</v>
+        <v>-0.01913427901777817</v>
       </c>
       <c r="F31">
-        <v>0.01290443520105418</v>
+        <v>0.002982730663338938</v>
       </c>
       <c r="G31">
-        <v>0.05215238138696982</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.0436957574896361</v>
+      </c>
+      <c r="H31">
+        <v>0.02951534392704406</v>
+      </c>
+      <c r="I31">
+        <v>-0.005584825670784594</v>
+      </c>
+      <c r="J31">
+        <v>-0.01581009893515059</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.07012594468766763</v>
+        <v>0.04613068777952516</v>
       </c>
       <c r="C32">
-        <v>-0.02997551784791912</v>
+        <v>0.04434719723676635</v>
       </c>
       <c r="D32">
-        <v>-0.003595247911423806</v>
+        <v>-0.03198746439165746</v>
       </c>
       <c r="E32">
-        <v>-0.1118065591560822</v>
+        <v>-0.02156308010364275</v>
       </c>
       <c r="F32">
-        <v>-0.006660623820572135</v>
+        <v>0.08926120394038076</v>
       </c>
       <c r="G32">
-        <v>0.02238648195168824</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01330063782897368</v>
+      </c>
+      <c r="H32">
+        <v>0.03676906294548848</v>
+      </c>
+      <c r="I32">
+        <v>-0.01209215492971227</v>
+      </c>
+      <c r="J32">
+        <v>-0.04884554231551182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.07017207646428644</v>
+        <v>0.05811690193552362</v>
       </c>
       <c r="C33">
-        <v>-0.03616065558363771</v>
+        <v>0.05482633397439038</v>
       </c>
       <c r="D33">
-        <v>-0.001292259697867347</v>
+        <v>0.000534308759129953</v>
       </c>
       <c r="E33">
-        <v>-0.07296933935846056</v>
+        <v>-0.002135034708761184</v>
       </c>
       <c r="F33">
-        <v>0.04777625625304167</v>
+        <v>0.07859579663067498</v>
       </c>
       <c r="G33">
-        <v>0.0103649361381108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03680677631992822</v>
+      </c>
+      <c r="H33">
+        <v>0.03600886698964038</v>
+      </c>
+      <c r="I33">
+        <v>0.02137939444365393</v>
+      </c>
+      <c r="J33">
+        <v>-0.04901265275444015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.0489408433634366</v>
+        <v>0.0462109963236781</v>
       </c>
       <c r="C34">
-        <v>-0.01431723753037632</v>
+        <v>0.02734561386941288</v>
       </c>
       <c r="D34">
-        <v>0.004469435717955566</v>
+        <v>-0.01294912610815019</v>
       </c>
       <c r="E34">
-        <v>-0.0231294806932233</v>
+        <v>-0.01169399763819657</v>
       </c>
       <c r="F34">
-        <v>-0.004436822630660803</v>
+        <v>0.03236584840153406</v>
       </c>
       <c r="G34">
-        <v>0.01032054246158716</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.00429562428875364</v>
+      </c>
+      <c r="H34">
+        <v>0.01066223900902706</v>
+      </c>
+      <c r="I34">
+        <v>0.01643865494045939</v>
+      </c>
+      <c r="J34">
+        <v>-0.03023826905240829</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01371676687070245</v>
+        <v>0.01595090238442782</v>
       </c>
       <c r="C36">
-        <v>0.00811583398950343</v>
+        <v>0.00098089900744356</v>
       </c>
       <c r="D36">
-        <v>-0.005813460138596411</v>
+        <v>-0.004890576503187727</v>
       </c>
       <c r="E36">
-        <v>-0.02193541208838428</v>
+        <v>-0.007725724393583423</v>
       </c>
       <c r="F36">
-        <v>0.006565068523988611</v>
+        <v>0.02778038792235681</v>
       </c>
       <c r="G36">
-        <v>0.01549950312163961</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02434930985214553</v>
+      </c>
+      <c r="H36">
+        <v>0.02741391533281885</v>
+      </c>
+      <c r="I36">
+        <v>0.005345952083376652</v>
+      </c>
+      <c r="J36">
+        <v>-0.002484387395504667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05610355559253628</v>
+        <v>0.03469492117729733</v>
       </c>
       <c r="C38">
-        <v>-0.009651897949433903</v>
+        <v>0.01307519164169733</v>
       </c>
       <c r="D38">
-        <v>-0.02118325173482329</v>
+        <v>-0.007281914286175624</v>
       </c>
       <c r="E38">
-        <v>-0.03838954182167902</v>
+        <v>-0.008822652410024256</v>
       </c>
       <c r="F38">
-        <v>0.002232571772134304</v>
+        <v>0.05183854366308845</v>
       </c>
       <c r="G38">
-        <v>-0.02709745903379438</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02720826072997666</v>
+      </c>
+      <c r="H38">
+        <v>0.01342331709552547</v>
+      </c>
+      <c r="I38">
+        <v>0.01159665618118698</v>
+      </c>
+      <c r="J38">
+        <v>-0.001208473205941087</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07599386682146041</v>
+        <v>0.05829588895525666</v>
       </c>
       <c r="C39">
-        <v>-0.01192105073166851</v>
+        <v>0.04078031227101205</v>
       </c>
       <c r="D39">
-        <v>0.001774064897181945</v>
+        <v>-0.00820608867091184</v>
       </c>
       <c r="E39">
-        <v>-0.04095575185968504</v>
+        <v>-0.01122271640402744</v>
       </c>
       <c r="F39">
-        <v>0.01975903648876014</v>
+        <v>0.05629578706336774</v>
       </c>
       <c r="G39">
-        <v>0.009103110291242507</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01760517457524238</v>
+      </c>
+      <c r="H39">
+        <v>0.0001123622411032842</v>
+      </c>
+      <c r="I39">
+        <v>0.04162552084677542</v>
+      </c>
+      <c r="J39">
+        <v>-0.0392313866116444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07493112897084379</v>
+        <v>0.05732885723194017</v>
       </c>
       <c r="C40">
-        <v>-0.03246400649309441</v>
+        <v>0.04746169533698383</v>
       </c>
       <c r="D40">
-        <v>0.003713460558377065</v>
+        <v>0.005557649575477972</v>
       </c>
       <c r="E40">
-        <v>-0.09967252280472645</v>
+        <v>-0.01694201267661023</v>
       </c>
       <c r="F40">
-        <v>0.02900939025547414</v>
+        <v>0.09728846669684434</v>
       </c>
       <c r="G40">
-        <v>-0.03883726768321265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02642538430003711</v>
+      </c>
+      <c r="H40">
+        <v>0.05194225977167564</v>
+      </c>
+      <c r="I40">
+        <v>0.00606762950731625</v>
+      </c>
+      <c r="J40">
+        <v>-0.1161646410793717</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.004534681923001402</v>
+        <v>0.00267059635102747</v>
       </c>
       <c r="C41">
-        <v>-0.01229333420891944</v>
+        <v>0.01089723366147859</v>
       </c>
       <c r="D41">
-        <v>-0.02174640006338233</v>
+        <v>-0.004812580382002997</v>
       </c>
       <c r="E41">
-        <v>-0.01401836844306187</v>
+        <v>-0.005441955886010846</v>
       </c>
       <c r="F41">
-        <v>0.03024622689222273</v>
+        <v>0.01523079037565126</v>
       </c>
       <c r="G41">
-        <v>0.02228478477345106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03884458058350852</v>
+      </c>
+      <c r="H41">
+        <v>0.03070209266408343</v>
+      </c>
+      <c r="I41">
+        <v>-0.01659961763049278</v>
+      </c>
+      <c r="J41">
+        <v>-0.01511667041459123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1223900172538707</v>
+        <v>0.2137414316186048</v>
       </c>
       <c r="C42">
-        <v>-0.1949425080393205</v>
+        <v>0.1492243523119812</v>
       </c>
       <c r="D42">
-        <v>0.9223500739051433</v>
+        <v>0.02298154720631403</v>
       </c>
       <c r="E42">
-        <v>0.125570145548361</v>
+        <v>0.9340865742326926</v>
       </c>
       <c r="F42">
-        <v>-0.0402452835585619</v>
+        <v>-0.1713312663026698</v>
       </c>
       <c r="G42">
-        <v>0.07280419430303738</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.01007247554385937</v>
+      </c>
+      <c r="H42">
+        <v>0.002516774761398346</v>
+      </c>
+      <c r="I42">
+        <v>-0.04203507539466073</v>
+      </c>
+      <c r="J42">
+        <v>-0.02768077331646374</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.008349480450501412</v>
+        <v>0.004906932685992906</v>
       </c>
       <c r="C43">
-        <v>-0.01725966968044763</v>
+        <v>0.01543303621891013</v>
       </c>
       <c r="D43">
-        <v>-0.01365299010239479</v>
+        <v>-0.003695754477627094</v>
       </c>
       <c r="E43">
-        <v>-0.03508322200733815</v>
+        <v>-0.005192404456514739</v>
       </c>
       <c r="F43">
-        <v>0.006379320501702914</v>
+        <v>0.02795829199583992</v>
       </c>
       <c r="G43">
-        <v>0.02040416995237202</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02228765039930759</v>
+      </c>
+      <c r="H43">
+        <v>0.03151347016006148</v>
+      </c>
+      <c r="I43">
+        <v>-0.009195615683182761</v>
+      </c>
+      <c r="J43">
+        <v>-0.02436946783880681</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.0392814645529236</v>
+        <v>0.02818013124137168</v>
       </c>
       <c r="C44">
-        <v>-0.04033428892428818</v>
+        <v>0.04007511041316437</v>
       </c>
       <c r="D44">
-        <v>-0.003683603315194956</v>
+        <v>-0.0169700416556109</v>
       </c>
       <c r="E44">
-        <v>-0.1201278327939644</v>
+        <v>-0.002263258666546846</v>
       </c>
       <c r="F44">
-        <v>0.08969430381926306</v>
+        <v>0.1231821045692089</v>
       </c>
       <c r="G44">
-        <v>0.01936146588561829</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06236152678009897</v>
+      </c>
+      <c r="H44">
+        <v>0.1000061488636132</v>
+      </c>
+      <c r="I44">
+        <v>-0.0246512502603066</v>
+      </c>
+      <c r="J44">
+        <v>-0.03474630069482064</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02621864622730838</v>
+        <v>0.02448096895454443</v>
       </c>
       <c r="C46">
-        <v>-0.01501931139190022</v>
+        <v>0.03408454125111207</v>
       </c>
       <c r="D46">
-        <v>-0.02361490481592638</v>
+        <v>-0.01073939314059737</v>
       </c>
       <c r="E46">
-        <v>-0.02488963617238344</v>
+        <v>-0.02247523804703241</v>
       </c>
       <c r="F46">
-        <v>0.02554678507469114</v>
+        <v>0.04697152359024426</v>
       </c>
       <c r="G46">
-        <v>0.02700985614953269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.02877737540546406</v>
+      </c>
+      <c r="H46">
+        <v>0.05192860815195648</v>
+      </c>
+      <c r="I46">
+        <v>0.004371344188468585</v>
+      </c>
+      <c r="J46">
+        <v>-0.02055958600887702</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08648025060360012</v>
+        <v>0.09191826334078101</v>
       </c>
       <c r="C47">
-        <v>-0.01068163757163079</v>
+        <v>0.01985451523187625</v>
       </c>
       <c r="D47">
-        <v>-0.02083665081854312</v>
+        <v>0.001110315236808897</v>
       </c>
       <c r="E47">
-        <v>0.02045127436770128</v>
+        <v>-0.02307963281297437</v>
       </c>
       <c r="F47">
-        <v>0.01084123150376622</v>
+        <v>-0.01011779495998493</v>
       </c>
       <c r="G47">
-        <v>0.03327433151210081</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04771052723983952</v>
+      </c>
+      <c r="H47">
+        <v>0.05230178063379523</v>
+      </c>
+      <c r="I47">
+        <v>-0.01069728850100905</v>
+      </c>
+      <c r="J47">
+        <v>-0.02619572622487581</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01784054337671933</v>
+        <v>0.01863525984422843</v>
       </c>
       <c r="C48">
-        <v>-0.02027399640300329</v>
+        <v>0.01995398373357883</v>
       </c>
       <c r="D48">
-        <v>-0.01463089499638296</v>
+        <v>-0.009222873665822867</v>
       </c>
       <c r="E48">
-        <v>-0.03020357335139675</v>
+        <v>-0.01006441164852174</v>
       </c>
       <c r="F48">
-        <v>0.009494900247994986</v>
+        <v>0.03074984818983526</v>
       </c>
       <c r="G48">
-        <v>0.00426441424983127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01591356222118269</v>
+      </c>
+      <c r="H48">
+        <v>0.0227980948418614</v>
+      </c>
+      <c r="I48">
+        <v>-0.007826832838543556</v>
+      </c>
+      <c r="J48">
+        <v>-0.01508906449094678</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.08678088667187121</v>
+        <v>0.08799141599547074</v>
       </c>
       <c r="C50">
-        <v>-0.03295801991197345</v>
+        <v>0.03178223259558054</v>
       </c>
       <c r="D50">
-        <v>-0.02492819889078753</v>
+        <v>-0.02077725040953581</v>
       </c>
       <c r="E50">
-        <v>0.01330859127631034</v>
+        <v>-0.01904681910416728</v>
       </c>
       <c r="F50">
-        <v>0.001297297715366871</v>
+        <v>-0.002730662714795533</v>
       </c>
       <c r="G50">
-        <v>0.0403922813219058</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.007172439066400273</v>
+      </c>
+      <c r="H50">
+        <v>0.04029451325884459</v>
+      </c>
+      <c r="I50">
+        <v>0.01579121142137162</v>
+      </c>
+      <c r="J50">
+        <v>-0.001888706387850992</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06856015177935661</v>
+        <v>0.04689757389144287</v>
       </c>
       <c r="C51">
-        <v>0.02007068107550739</v>
+        <v>0.005588728532103027</v>
       </c>
       <c r="D51">
-        <v>0.007264349889168764</v>
+        <v>0.01301652579160092</v>
       </c>
       <c r="E51">
-        <v>-0.08262788290930384</v>
+        <v>-0.008574191348091691</v>
       </c>
       <c r="F51">
-        <v>0.0523979843755318</v>
+        <v>0.09502303285169612</v>
       </c>
       <c r="G51">
-        <v>0.05651063544951957</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.0558721063227811</v>
+      </c>
+      <c r="H51">
+        <v>0.04492266863299024</v>
+      </c>
+      <c r="I51">
+        <v>-0.01674679299829933</v>
+      </c>
+      <c r="J51">
+        <v>-0.04754137736704925</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1452425856395876</v>
+        <v>0.1275975558038226</v>
       </c>
       <c r="C53">
-        <v>-0.01049199733417084</v>
+        <v>0.03681461805849542</v>
       </c>
       <c r="D53">
-        <v>-0.04375158596050471</v>
+        <v>-0.003457774071268672</v>
       </c>
       <c r="E53">
-        <v>0.03920346785916631</v>
+        <v>-0.04540416870639617</v>
       </c>
       <c r="F53">
-        <v>-0.002992419995894338</v>
+        <v>-0.03848391248024486</v>
       </c>
       <c r="G53">
-        <v>0.03730950702278035</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02668566483750946</v>
+      </c>
+      <c r="H53">
+        <v>-0.003793235579660963</v>
+      </c>
+      <c r="I53">
+        <v>-0.02890020296233197</v>
+      </c>
+      <c r="J53">
+        <v>-0.03633355525753544</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02997493783665881</v>
+        <v>0.02546561999765782</v>
       </c>
       <c r="C54">
-        <v>0.002854676110572866</v>
+        <v>0.004232033339136798</v>
       </c>
       <c r="D54">
-        <v>-0.02876460035294761</v>
+        <v>-0.006606088481220036</v>
       </c>
       <c r="E54">
-        <v>-0.03089286066732257</v>
+        <v>-0.02354310141612346</v>
       </c>
       <c r="F54">
-        <v>0.04627904661297638</v>
+        <v>0.03916908900250077</v>
       </c>
       <c r="G54">
-        <v>0.002768286503547029</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05288298486124569</v>
+      </c>
+      <c r="H54">
+        <v>0.04052204841417519</v>
+      </c>
+      <c r="I54">
+        <v>-0.02780859195995623</v>
+      </c>
+      <c r="J54">
+        <v>-0.003734703333795998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.1007480614539462</v>
+        <v>0.1022299645387773</v>
       </c>
       <c r="C55">
-        <v>0.003611591444812766</v>
+        <v>0.01807105919933776</v>
       </c>
       <c r="D55">
-        <v>-0.03855877756878108</v>
+        <v>-0.01769719647212752</v>
       </c>
       <c r="E55">
-        <v>0.006967420284394746</v>
+        <v>-0.03083558903555469</v>
       </c>
       <c r="F55">
-        <v>-0.03993351605744441</v>
+        <v>-0.02954233341041935</v>
       </c>
       <c r="G55">
-        <v>-0.01997517847150135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.006170488096659495</v>
+      </c>
+      <c r="H55">
+        <v>0.01419816979390516</v>
+      </c>
+      <c r="I55">
+        <v>-0.0103902894574698</v>
+      </c>
+      <c r="J55">
+        <v>-0.035418942139042</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1799780177350618</v>
+        <v>0.170158543219291</v>
       </c>
       <c r="C56">
-        <v>0.01227179253337834</v>
+        <v>0.01834044044235061</v>
       </c>
       <c r="D56">
-        <v>-0.08425394111827093</v>
+        <v>-0.005577179913645999</v>
       </c>
       <c r="E56">
-        <v>0.08345731313223811</v>
+        <v>-0.08414102154592908</v>
       </c>
       <c r="F56">
-        <v>-0.07743310831340151</v>
+        <v>-0.08506953715857649</v>
       </c>
       <c r="G56">
-        <v>0.003966323220313519</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02607641301295043</v>
+      </c>
+      <c r="H56">
+        <v>-0.04114323714502093</v>
+      </c>
+      <c r="I56">
+        <v>-0.02116561095154679</v>
+      </c>
+      <c r="J56">
+        <v>-0.04567053392965977</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09435996269665212</v>
+        <v>0.0726041594161478</v>
       </c>
       <c r="C57">
-        <v>-0.02652406813946637</v>
+        <v>0.03847247554371108</v>
       </c>
       <c r="D57">
-        <v>-0.01691524107499342</v>
+        <v>0.004800105258889895</v>
       </c>
       <c r="E57">
-        <v>-0.0466134811330992</v>
+        <v>-0.009651228423005224</v>
       </c>
       <c r="F57">
-        <v>0.02538498003838378</v>
+        <v>0.05992848333089871</v>
       </c>
       <c r="G57">
-        <v>0.018407942818806</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02365350364942571</v>
+      </c>
+      <c r="H57">
+        <v>0.02578074647444548</v>
+      </c>
+      <c r="I57">
+        <v>0.007992465469781313</v>
+      </c>
+      <c r="J57">
+        <v>-0.03798433182511975</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1785006124711276</v>
+        <v>0.2024877417082676</v>
       </c>
       <c r="C58">
-        <v>-0.01271326798654416</v>
+        <v>0.1073467855951851</v>
       </c>
       <c r="D58">
-        <v>0.04915873219538568</v>
+        <v>0.05656884121490805</v>
       </c>
       <c r="E58">
-        <v>-0.1206954605372068</v>
+        <v>0.0142115430218538</v>
       </c>
       <c r="F58">
-        <v>-0.06631000133546303</v>
+        <v>0.2383976695345085</v>
       </c>
       <c r="G58">
-        <v>0.01462200280965023</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1477843618834375</v>
+      </c>
+      <c r="H58">
+        <v>0.3809762246885366</v>
+      </c>
+      <c r="I58">
+        <v>0.006875585229750372</v>
+      </c>
+      <c r="J58">
+        <v>0.7618497967442556</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.01129576576710975</v>
+        <v>0.0386987532430841</v>
       </c>
       <c r="C59">
-        <v>0.2016048189013729</v>
+        <v>-0.1756438393836033</v>
       </c>
       <c r="D59">
-        <v>-0.008101607579723126</v>
+        <v>0.08983431189941632</v>
       </c>
       <c r="E59">
-        <v>-0.05646070985492692</v>
+        <v>-0.009150448335829947</v>
       </c>
       <c r="F59">
-        <v>0.01035178295379433</v>
+        <v>0.072440819224032</v>
       </c>
       <c r="G59">
-        <v>0.009045131248297249</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.003961935786584687</v>
+      </c>
+      <c r="H59">
+        <v>-0.02165291214065004</v>
+      </c>
+      <c r="I59">
+        <v>-0.06098670018009208</v>
+      </c>
+      <c r="J59">
+        <v>0.003123229211410966</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1869752624751405</v>
+        <v>0.1835663462012111</v>
       </c>
       <c r="C60">
-        <v>0.1033603305562835</v>
+        <v>-0.02837310963699726</v>
       </c>
       <c r="D60">
-        <v>-0.0005414614428985821</v>
+        <v>0.0663890399278355</v>
       </c>
       <c r="E60">
-        <v>-0.1892066151573928</v>
+        <v>-0.01086207507002388</v>
       </c>
       <c r="F60">
-        <v>0.05654266462104356</v>
+        <v>0.2046843609216758</v>
       </c>
       <c r="G60">
-        <v>0.01760848864480387</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.09350887401701945</v>
+      </c>
+      <c r="H60">
+        <v>-0.2617702473945785</v>
+      </c>
+      <c r="I60">
+        <v>0.092737735292095</v>
+      </c>
+      <c r="J60">
+        <v>-0.001693720420996397</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.05007716004847152</v>
+        <v>0.03888407666031204</v>
       </c>
       <c r="C61">
-        <v>-0.001366774715069317</v>
+        <v>0.02354017673666852</v>
       </c>
       <c r="D61">
-        <v>0.0089987288914769</v>
+        <v>-0.008332038075794935</v>
       </c>
       <c r="E61">
-        <v>-0.03885302226135899</v>
+        <v>-0.001462530048264814</v>
       </c>
       <c r="F61">
-        <v>0.008925098541588516</v>
+        <v>0.03982228336813226</v>
       </c>
       <c r="G61">
-        <v>0.005547939982083603</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.008824411286226722</v>
+      </c>
+      <c r="H61">
+        <v>-0.001460123727524793</v>
+      </c>
+      <c r="I61">
+        <v>0.04094369780641031</v>
+      </c>
+      <c r="J61">
+        <v>-0.01744113368840115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04874897913309472</v>
+        <v>0.03244767657102225</v>
       </c>
       <c r="C63">
-        <v>0.001755769561435726</v>
+        <v>0.01942998137215463</v>
       </c>
       <c r="D63">
-        <v>-0.01278446339176635</v>
+        <v>-0.004625615715016977</v>
       </c>
       <c r="E63">
-        <v>-0.03265893852134016</v>
+        <v>-0.01264654728140517</v>
       </c>
       <c r="F63">
-        <v>0.004299820548168913</v>
+        <v>0.02770333023383506</v>
       </c>
       <c r="G63">
-        <v>0.01566968631621984</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01799586484550252</v>
+      </c>
+      <c r="H63">
+        <v>0.03946226022687243</v>
+      </c>
+      <c r="I63">
+        <v>-0.02131786507977104</v>
+      </c>
+      <c r="J63">
+        <v>-0.03992653047542824</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.08266144875263259</v>
+        <v>0.05572103895327647</v>
       </c>
       <c r="C64">
-        <v>-0.04302418405691576</v>
+        <v>0.04173175083799279</v>
       </c>
       <c r="D64">
-        <v>-0.05805169246264349</v>
+        <v>-0.03102791884127018</v>
       </c>
       <c r="E64">
-        <v>-0.06622207552905598</v>
+        <v>-0.03582034545441961</v>
       </c>
       <c r="F64">
-        <v>0.05982930585077998</v>
+        <v>0.05646943563071502</v>
       </c>
       <c r="G64">
-        <v>-0.02595547292437085</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05618127564421736</v>
+      </c>
+      <c r="H64">
+        <v>-0.005935801280197588</v>
+      </c>
+      <c r="I64">
+        <v>-0.008978306074451468</v>
+      </c>
+      <c r="J64">
+        <v>-0.09518572397455985</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01922807347804573</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.006925309755204371</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.009740630367945943</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.004109789924631355</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.001476288347325483</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.0222322770620629</v>
+      </c>
+      <c r="H65">
+        <v>0.0004560355047660853</v>
+      </c>
+      <c r="I65">
+        <v>0.01268197428482269</v>
+      </c>
+      <c r="J65">
+        <v>-0.002322543115593117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.09504624824674746</v>
+        <v>0.06967479478476722</v>
       </c>
       <c r="C66">
-        <v>-0.02514617814084062</v>
+        <v>0.05795751729283472</v>
       </c>
       <c r="D66">
-        <v>-0.03188283461952714</v>
+        <v>-0.006652957757620885</v>
       </c>
       <c r="E66">
-        <v>-0.07971286727258567</v>
+        <v>-0.03868067947433603</v>
       </c>
       <c r="F66">
-        <v>0.04415149420586734</v>
+        <v>0.07093551130025323</v>
       </c>
       <c r="G66">
-        <v>0.01723504795609164</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.0161240917798605</v>
+      </c>
+      <c r="H66">
+        <v>-0.002656159011850177</v>
+      </c>
+      <c r="I66">
+        <v>0.05508783314806108</v>
+      </c>
+      <c r="J66">
+        <v>-0.06408859688536152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.0624146936539369</v>
+        <v>0.04619643366578977</v>
       </c>
       <c r="C67">
-        <v>0.014495903724556</v>
+        <v>-0.0018804665642308</v>
       </c>
       <c r="D67">
-        <v>-0.00687935823083083</v>
+        <v>0.002961191410706747</v>
       </c>
       <c r="E67">
-        <v>-0.03249630161330431</v>
+        <v>-0.007623202275207091</v>
       </c>
       <c r="F67">
-        <v>0.005558459867321244</v>
+        <v>0.04107566912124734</v>
       </c>
       <c r="G67">
-        <v>-0.03718926409396551</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03264569690206697</v>
+      </c>
+      <c r="H67">
+        <v>-0.009159210662567347</v>
+      </c>
+      <c r="I67">
+        <v>0.04102411036732637</v>
+      </c>
+      <c r="J67">
+        <v>-0.007615149851996214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.009851304907161813</v>
+        <v>0.04337050868753396</v>
       </c>
       <c r="C68">
-        <v>0.2486870528611495</v>
+        <v>-0.2169213089594129</v>
       </c>
       <c r="D68">
-        <v>0.008974893370273377</v>
+        <v>0.1026000129583413</v>
       </c>
       <c r="E68">
-        <v>-0.04085433970795573</v>
+        <v>0.004300683719816756</v>
       </c>
       <c r="F68">
-        <v>0.0055590525575418</v>
+        <v>0.05586468046951888</v>
       </c>
       <c r="G68">
-        <v>0.01850373008511816</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.001939796306679028</v>
+      </c>
+      <c r="H68">
+        <v>-0.01415567129451493</v>
+      </c>
+      <c r="I68">
+        <v>-0.1763673589841448</v>
+      </c>
+      <c r="J68">
+        <v>0.03363105117059494</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.07193210361385023</v>
+        <v>0.07226135603229179</v>
       </c>
       <c r="C69">
-        <v>-0.01387367873476198</v>
+        <v>0.02298893638881142</v>
       </c>
       <c r="D69">
-        <v>-0.02231733865958459</v>
+        <v>-0.001288321013297797</v>
       </c>
       <c r="E69">
-        <v>0.01044104171018533</v>
+        <v>-0.0277242889830641</v>
       </c>
       <c r="F69">
-        <v>0.002025956159382253</v>
+        <v>0.001059371416780972</v>
       </c>
       <c r="G69">
-        <v>0.02768257775244056</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02957017002181979</v>
+      </c>
+      <c r="H69">
+        <v>0.02619205250586296</v>
+      </c>
+      <c r="I69">
+        <v>0.01317504687187628</v>
+      </c>
+      <c r="J69">
+        <v>-0.02770245070790264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.01032887695916563</v>
+        <v>0.05037443779229154</v>
       </c>
       <c r="C71">
-        <v>0.2730552712309171</v>
+        <v>-0.2257486261954968</v>
       </c>
       <c r="D71">
-        <v>0.01305558855295811</v>
+        <v>0.1145747126658149</v>
       </c>
       <c r="E71">
-        <v>-0.08244696483981913</v>
+        <v>0.02224486338730033</v>
       </c>
       <c r="F71">
-        <v>0.02061908204437306</v>
+        <v>0.08255406789303904</v>
       </c>
       <c r="G71">
-        <v>0.03606330614905623</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01433524959572332</v>
+      </c>
+      <c r="H71">
+        <v>-0.03409790309856075</v>
+      </c>
+      <c r="I71">
+        <v>-0.1255782760070782</v>
+      </c>
+      <c r="J71">
+        <v>0.0051604788290478</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1161001724698641</v>
+        <v>0.1210405504436205</v>
       </c>
       <c r="C72">
-        <v>0.007155826688600734</v>
+        <v>0.02980570222499083</v>
       </c>
       <c r="D72">
-        <v>-0.0331788394859145</v>
+        <v>-0.002237213353947402</v>
       </c>
       <c r="E72">
-        <v>-0.1019633839732498</v>
+        <v>-0.05491605859578401</v>
       </c>
       <c r="F72">
-        <v>-0.01311071010713981</v>
+        <v>0.08776533132863126</v>
       </c>
       <c r="G72">
-        <v>-0.02393723512928696</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.0472950357394923</v>
+      </c>
+      <c r="H72">
+        <v>0.001977149822499255</v>
+      </c>
+      <c r="I72">
+        <v>0.04739202095156866</v>
+      </c>
+      <c r="J72">
+        <v>0.0941791368717534</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2797855517489193</v>
+        <v>0.2664991497971788</v>
       </c>
       <c r="C73">
-        <v>0.1732251286391074</v>
+        <v>-0.04988570951066849</v>
       </c>
       <c r="D73">
-        <v>0.07442653617270366</v>
+        <v>0.1234786471941686</v>
       </c>
       <c r="E73">
-        <v>-0.3352102605571678</v>
+        <v>0.03174563506796534</v>
       </c>
       <c r="F73">
-        <v>0.05841096840143314</v>
+        <v>0.3130575379743841</v>
       </c>
       <c r="G73">
-        <v>0.006020890913116042</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.2012138324770825</v>
+      </c>
+      <c r="H73">
+        <v>-0.4525661054083885</v>
+      </c>
+      <c r="I73">
+        <v>0.307981540047702</v>
+      </c>
+      <c r="J73">
+        <v>0.01842161054221967</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1611580999973334</v>
+        <v>0.1536964478807006</v>
       </c>
       <c r="C74">
-        <v>0.003051941042808234</v>
+        <v>0.02854942483828686</v>
       </c>
       <c r="D74">
-        <v>-0.0399540704973266</v>
+        <v>0.005775265296946941</v>
       </c>
       <c r="E74">
-        <v>0.01864556760468935</v>
+        <v>-0.04652084382322382</v>
       </c>
       <c r="F74">
-        <v>-0.05810410832503427</v>
+        <v>-0.05347074891956979</v>
       </c>
       <c r="G74">
-        <v>0.05788115626785179</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01855336802832377</v>
+      </c>
+      <c r="H74">
+        <v>-0.02984588808336416</v>
+      </c>
+      <c r="I74">
+        <v>-0.0002154897570574258</v>
+      </c>
+      <c r="J74">
+        <v>-0.08656056298019191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2348082451126021</v>
+        <v>0.2455919198623294</v>
       </c>
       <c r="C75">
-        <v>0.01224023246823108</v>
+        <v>0.02915639322052919</v>
       </c>
       <c r="D75">
-        <v>-0.07373741446829014</v>
+        <v>0.02051303896334441</v>
       </c>
       <c r="E75">
-        <v>0.1198544323756105</v>
+        <v>-0.1067776819527559</v>
       </c>
       <c r="F75">
-        <v>-0.04068023355873428</v>
+        <v>-0.1413808346601876</v>
       </c>
       <c r="G75">
-        <v>0.04466258281764119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.005316516263937879</v>
+      </c>
+      <c r="H75">
+        <v>-0.02424027036921398</v>
+      </c>
+      <c r="I75">
+        <v>-0.08712998878363493</v>
+      </c>
+      <c r="J75">
+        <v>-0.03914233103446377</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2502932333472471</v>
+        <v>0.2691861417923603</v>
       </c>
       <c r="C76">
-        <v>0.01171490771283813</v>
+        <v>0.01741524979815844</v>
       </c>
       <c r="D76">
-        <v>-0.1148661838733158</v>
+        <v>-0.01470520038490019</v>
       </c>
       <c r="E76">
-        <v>0.1150463150555647</v>
+        <v>-0.1305241750685043</v>
       </c>
       <c r="F76">
-        <v>-0.07233949736043645</v>
+        <v>-0.1760113095325435</v>
       </c>
       <c r="G76">
-        <v>0.04371664862331916</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04725418587173217</v>
+      </c>
+      <c r="H76">
+        <v>-0.04512637318380512</v>
+      </c>
+      <c r="I76">
+        <v>-0.01480739978400129</v>
+      </c>
+      <c r="J76">
+        <v>-0.0702653465882417</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.131660305586188</v>
+        <v>0.1296184370559481</v>
       </c>
       <c r="C77">
-        <v>-0.02329983661296465</v>
+        <v>0.06347794642351634</v>
       </c>
       <c r="D77">
-        <v>0.05721242865244466</v>
+        <v>-0.01217185378158998</v>
       </c>
       <c r="E77">
-        <v>-0.1445267748714611</v>
+        <v>0.04646554596468746</v>
       </c>
       <c r="F77">
-        <v>0.00213771118755472</v>
+        <v>0.160231411045565</v>
       </c>
       <c r="G77">
-        <v>-0.06819652167993617</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.01196669047987763</v>
+      </c>
+      <c r="H77">
+        <v>0.1997984844996681</v>
+      </c>
+      <c r="I77">
+        <v>-0.1735431436443116</v>
+      </c>
+      <c r="J77">
+        <v>-0.125920033409355</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.08599795330097956</v>
+        <v>0.08068516842060053</v>
       </c>
       <c r="C78">
-        <v>-0.04132305952736821</v>
+        <v>0.06985199063414461</v>
       </c>
       <c r="D78">
-        <v>0.0224716529282187</v>
+        <v>-0.03050486919539252</v>
       </c>
       <c r="E78">
-        <v>-0.05119368340482542</v>
+        <v>0.002009925654045111</v>
       </c>
       <c r="F78">
-        <v>0.01173340529065856</v>
+        <v>0.07476177859184263</v>
       </c>
       <c r="G78">
-        <v>0.01633688454580132</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.009931553909822258</v>
+      </c>
+      <c r="H78">
+        <v>0.02673806849642638</v>
+      </c>
+      <c r="I78">
+        <v>-0.01671527419221831</v>
+      </c>
+      <c r="J78">
+        <v>-0.04707187829813337</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.06630245793452275</v>
+        <v>0.1518876522920306</v>
       </c>
       <c r="C80">
-        <v>-0.0214429827354783</v>
+        <v>-0.3987072126314451</v>
       </c>
       <c r="D80">
-        <v>0.01546454945634932</v>
+        <v>-0.8864116213689189</v>
       </c>
       <c r="E80">
-        <v>0.02699195184046014</v>
+        <v>0.06960503256150977</v>
       </c>
       <c r="F80">
-        <v>-0.1671781782673507</v>
+        <v>0.04924465412948026</v>
       </c>
       <c r="G80">
-        <v>-0.9267850040492056</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04319446409086447</v>
+      </c>
+      <c r="H80">
+        <v>-0.05661860851759445</v>
+      </c>
+      <c r="I80">
+        <v>0.01425347957892829</v>
+      </c>
+      <c r="J80">
+        <v>0.1030271695175951</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1645715723396788</v>
+        <v>0.1804017545294037</v>
       </c>
       <c r="C81">
-        <v>0.0102228925492921</v>
+        <v>0.00980790662042137</v>
       </c>
       <c r="D81">
-        <v>-0.06215450578640636</v>
+        <v>0.005156098410663332</v>
       </c>
       <c r="E81">
-        <v>0.15148664401887</v>
+        <v>-0.08592312978088032</v>
       </c>
       <c r="F81">
-        <v>-0.09927843944822595</v>
+        <v>-0.1605591787360636</v>
       </c>
       <c r="G81">
-        <v>0.0437099454183488</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02772870717890381</v>
+      </c>
+      <c r="H81">
+        <v>-0.01236618454663468</v>
+      </c>
+      <c r="I81">
+        <v>-0.05164170596878945</v>
+      </c>
+      <c r="J81">
+        <v>-0.01354290408939988</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.09173586992501656</v>
+        <v>0.06850956480566812</v>
       </c>
       <c r="C83">
-        <v>-0.0440027572208162</v>
+        <v>0.04816674910878591</v>
       </c>
       <c r="D83">
-        <v>0.08304754603225116</v>
+        <v>-0.001111024086375076</v>
       </c>
       <c r="E83">
-        <v>-0.00814601053238526</v>
+        <v>0.04337212156114049</v>
       </c>
       <c r="F83">
-        <v>0.06106916469740795</v>
+        <v>0.04638659551837583</v>
       </c>
       <c r="G83">
-        <v>0.0112126515579299</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.06044499922183257</v>
+      </c>
+      <c r="H83">
+        <v>0.01587707558728909</v>
+      </c>
+      <c r="I83">
+        <v>-0.01095463009205365</v>
+      </c>
+      <c r="J83">
+        <v>-0.08103134694658834</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2353951978211213</v>
+        <v>0.2524109871498285</v>
       </c>
       <c r="C85">
-        <v>-0.0524597996497156</v>
+        <v>0.05465621752506733</v>
       </c>
       <c r="D85">
-        <v>-0.07561754066707778</v>
+        <v>-0.01186510086471359</v>
       </c>
       <c r="E85">
-        <v>0.1426407014664181</v>
+        <v>-0.08819464507262739</v>
       </c>
       <c r="F85">
-        <v>-0.06451205017225906</v>
+        <v>-0.1785190760461203</v>
       </c>
       <c r="G85">
-        <v>0.02805200163696741</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.006928415485787658</v>
+      </c>
+      <c r="H85">
+        <v>0.01556945326365489</v>
+      </c>
+      <c r="I85">
+        <v>-0.04666441327429992</v>
+      </c>
+      <c r="J85">
+        <v>-0.09349306197626749</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04530711936990349</v>
+        <v>0.02670226964964055</v>
       </c>
       <c r="C86">
-        <v>-0.04744694660732703</v>
+        <v>0.06108871607683519</v>
       </c>
       <c r="D86">
-        <v>-0.008333577786477687</v>
+        <v>-0.02434923217774777</v>
       </c>
       <c r="E86">
-        <v>-0.06510150168048559</v>
+        <v>-0.006117387054321003</v>
       </c>
       <c r="F86">
-        <v>0.001751342491487116</v>
+        <v>0.0705070671085504</v>
       </c>
       <c r="G86">
-        <v>0.02756875202017167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.006288380843036122</v>
+      </c>
+      <c r="H86">
+        <v>0.06371133732444886</v>
+      </c>
+      <c r="I86">
+        <v>-0.02098117698192116</v>
+      </c>
+      <c r="J86">
+        <v>-0.04318704561345961</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.02332968290232336</v>
+        <v>0.03447850547196753</v>
       </c>
       <c r="C87">
-        <v>0.05212237201190863</v>
+        <v>-0.01125196439078757</v>
       </c>
       <c r="D87">
-        <v>-0.0005539487478251372</v>
+        <v>0.01009274687801764</v>
       </c>
       <c r="E87">
-        <v>-0.09419421281702557</v>
+        <v>-0.002434292546980126</v>
       </c>
       <c r="F87">
-        <v>-0.01439346088230638</v>
+        <v>0.1029450321746015</v>
       </c>
       <c r="G87">
-        <v>0.03738173682899692</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02127237206105442</v>
+      </c>
+      <c r="H87">
+        <v>0.01840810797724863</v>
+      </c>
+      <c r="I87">
+        <v>0.02082669562608246</v>
+      </c>
+      <c r="J87">
+        <v>-0.01150218106230967</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.04080644469797381</v>
+        <v>0.02821768014270596</v>
       </c>
       <c r="C88">
-        <v>-0.03352503127034737</v>
+        <v>0.01650786707003342</v>
       </c>
       <c r="D88">
-        <v>-0.009270914066933054</v>
+        <v>-0.01920475242321888</v>
       </c>
       <c r="E88">
-        <v>0.0103324745308407</v>
+        <v>-0.01488648265590293</v>
       </c>
       <c r="F88">
-        <v>-0.01164993476869002</v>
+        <v>-0.009973337056146009</v>
       </c>
       <c r="G88">
-        <v>0.009929217970395521</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03995695173266008</v>
+      </c>
+      <c r="H88">
+        <v>0.03724538352557252</v>
+      </c>
+      <c r="I88">
+        <v>0.0284185960810064</v>
+      </c>
+      <c r="J88">
+        <v>-0.03513136705870637</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.006564869579110731</v>
+        <v>0.06454191421911533</v>
       </c>
       <c r="C89">
-        <v>0.4155076948681132</v>
+        <v>-0.3500711773460113</v>
       </c>
       <c r="D89">
-        <v>0.08722990384997466</v>
+        <v>0.1840715696136522</v>
       </c>
       <c r="E89">
-        <v>0.01312767412138211</v>
+        <v>0.03635035373031469</v>
       </c>
       <c r="F89">
-        <v>0.007534805855062122</v>
+        <v>0.03857286410574608</v>
       </c>
       <c r="G89">
-        <v>0.0230073715014787</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04664886842404236</v>
+      </c>
+      <c r="H89">
+        <v>0.03700892237595856</v>
+      </c>
+      <c r="I89">
+        <v>-0.2721244441843657</v>
+      </c>
+      <c r="J89">
+        <v>0.02472962800575271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.002761731860238167</v>
+        <v>0.04487513989909381</v>
       </c>
       <c r="C90">
-        <v>0.3100608525418505</v>
+        <v>-0.3061932267102112</v>
       </c>
       <c r="D90">
-        <v>0.03002414444684462</v>
+        <v>0.142476773726531</v>
       </c>
       <c r="E90">
-        <v>-0.04016857488669378</v>
+        <v>0.02495891572141199</v>
       </c>
       <c r="F90">
-        <v>0.01565332683501481</v>
+        <v>0.03519801918409226</v>
       </c>
       <c r="G90">
-        <v>0.03839979100872528</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02552583607470809</v>
+      </c>
+      <c r="H90">
+        <v>0.001338360911174015</v>
+      </c>
+      <c r="I90">
+        <v>-0.229124568657811</v>
+      </c>
+      <c r="J90">
+        <v>0.001222299292220255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.293097666496049</v>
+        <v>0.3053393544756491</v>
       </c>
       <c r="C91">
-        <v>-0.02071323963326255</v>
+        <v>0.03877888902620611</v>
       </c>
       <c r="D91">
-        <v>-0.09223042466104887</v>
+        <v>0.002089832973343382</v>
       </c>
       <c r="E91">
-        <v>0.2930972232842722</v>
+        <v>-0.09775243430254067</v>
       </c>
       <c r="F91">
-        <v>-0.1417696791614581</v>
+        <v>-0.2986762428331693</v>
       </c>
       <c r="G91">
-        <v>-0.03756825681624552</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.03347379191280524</v>
+      </c>
+      <c r="H91">
+        <v>-0.009580483457891071</v>
+      </c>
+      <c r="I91">
+        <v>-0.1213042434547405</v>
+      </c>
+      <c r="J91">
+        <v>-0.08636005281384571</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.004894781606813159</v>
+        <v>0.1012178121632877</v>
       </c>
       <c r="C92">
-        <v>0.4284637533871943</v>
+        <v>-0.4133749431085981</v>
       </c>
       <c r="D92">
-        <v>0.1930818810116758</v>
+        <v>0.1664769875179045</v>
       </c>
       <c r="E92">
-        <v>0.1562324722585113</v>
+        <v>0.05211560123161105</v>
       </c>
       <c r="F92">
-        <v>-0.08279800139116719</v>
+        <v>-0.115249822374121</v>
       </c>
       <c r="G92">
-        <v>-0.1449768614387037</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.1149426165613341</v>
+      </c>
+      <c r="H92">
+        <v>0.4441908178163685</v>
+      </c>
+      <c r="I92">
+        <v>0.7065410155793763</v>
+      </c>
+      <c r="J92">
+        <v>-0.1829510669297058</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.01420388992604734</v>
+        <v>0.0493297122606596</v>
       </c>
       <c r="C93">
-        <v>0.3724329549333565</v>
+        <v>-0.3655740562165551</v>
       </c>
       <c r="D93">
-        <v>0.0661588358509336</v>
+        <v>0.1851528453581018</v>
       </c>
       <c r="E93">
-        <v>0.03231914431085415</v>
+        <v>0.05260480946070681</v>
       </c>
       <c r="F93">
-        <v>-0.0123738981955934</v>
+        <v>0.005348191726057249</v>
       </c>
       <c r="G93">
-        <v>-0.0379173655448493</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03446633890968945</v>
+      </c>
+      <c r="H93">
+        <v>-0.02783212477188123</v>
+      </c>
+      <c r="I93">
+        <v>-0.1795872503683906</v>
+      </c>
+      <c r="J93">
+        <v>0.03321025683748594</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.273638629994072</v>
+        <v>0.3045017554666805</v>
       </c>
       <c r="C94">
-        <v>0.06861381117819536</v>
+        <v>0.0001023543920779306</v>
       </c>
       <c r="D94">
-        <v>-0.04397329650657339</v>
+        <v>0.04603584360995403</v>
       </c>
       <c r="E94">
-        <v>0.3438789101570091</v>
+        <v>-0.1379868444669322</v>
       </c>
       <c r="F94">
-        <v>-0.3945456009174592</v>
+        <v>-0.334235262520144</v>
       </c>
       <c r="G94">
-        <v>0.15430340409374</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1866642942010726</v>
+      </c>
+      <c r="H94">
+        <v>0.1535947972842262</v>
+      </c>
+      <c r="I94">
+        <v>-0.02938107565507824</v>
+      </c>
+      <c r="J94">
+        <v>0.1837377460925828</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1984589538226053</v>
+        <v>0.1293351871189391</v>
       </c>
       <c r="C95">
-        <v>0.02765214578168452</v>
+        <v>0.08388805138618993</v>
       </c>
       <c r="D95">
-        <v>-0.008707236882877703</v>
+        <v>0.07255282577471638</v>
       </c>
       <c r="E95">
-        <v>0.4022116676011561</v>
+        <v>-0.02433558681013807</v>
       </c>
       <c r="F95">
-        <v>0.8313903956469332</v>
+        <v>-0.06230701043356227</v>
       </c>
       <c r="G95">
-        <v>-0.1221973131985623</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8889769457285606</v>
+      </c>
+      <c r="H95">
+        <v>-0.2107921998139403</v>
+      </c>
+      <c r="I95">
+        <v>0.06235922317934184</v>
+      </c>
+      <c r="J95">
+        <v>0.2764403530114655</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2206262264953712</v>
+        <v>0.2084719322217015</v>
       </c>
       <c r="C98">
-        <v>0.1216443794989233</v>
+        <v>-0.03603048569038369</v>
       </c>
       <c r="D98">
-        <v>0.06032043169306312</v>
+        <v>0.08785813687340333</v>
       </c>
       <c r="E98">
-        <v>-0.09062545895318939</v>
+        <v>0.02854610412598185</v>
       </c>
       <c r="F98">
-        <v>0.05897058194068856</v>
+        <v>0.1584369018183994</v>
       </c>
       <c r="G98">
-        <v>0.05973302736999206</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.09747525537762509</v>
+      </c>
+      <c r="H98">
+        <v>-0.3193401612731143</v>
+      </c>
+      <c r="I98">
+        <v>0.1609621011062649</v>
+      </c>
+      <c r="J98">
+        <v>0.06853392211364469</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02367690249593035</v>
+        <v>0.01541270628096853</v>
       </c>
       <c r="C101">
-        <v>-0.01671223483898417</v>
+        <v>0.02924573823750559</v>
       </c>
       <c r="D101">
-        <v>-0.02592190604468187</v>
+        <v>-0.01768596073266972</v>
       </c>
       <c r="E101">
-        <v>-0.02550230543073644</v>
+        <v>-0.02876553304430532</v>
       </c>
       <c r="F101">
-        <v>0.01448007515449221</v>
+        <v>0.06775931152233607</v>
       </c>
       <c r="G101">
-        <v>0.01820587451631947</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.02159346047184865</v>
+      </c>
+      <c r="H101">
+        <v>0.1097825841084557</v>
+      </c>
+      <c r="I101">
+        <v>0.03320587419666669</v>
+      </c>
+      <c r="J101">
+        <v>0.1155761138256407</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.120240434140423</v>
+        <v>0.1210181206685409</v>
       </c>
       <c r="C102">
-        <v>-0.0138762521172666</v>
+        <v>0.0225920304703787</v>
       </c>
       <c r="D102">
-        <v>-0.04496174827496691</v>
+        <v>-0.0100333521596447</v>
       </c>
       <c r="E102">
-        <v>0.08081558414560469</v>
+        <v>-0.05296936181788663</v>
       </c>
       <c r="F102">
-        <v>-0.002214464788679208</v>
+        <v>-0.09554386409195748</v>
       </c>
       <c r="G102">
-        <v>-0.004438146174863828</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.0215405641885053</v>
+      </c>
+      <c r="H102">
+        <v>-0.02367922918852253</v>
+      </c>
+      <c r="I102">
+        <v>-0.04210762700609628</v>
+      </c>
+      <c r="J102">
+        <v>-0.04259951168035991</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01794663733211235</v>
+        <v>0.03117223433071139</v>
       </c>
       <c r="C103">
-        <v>-0.0003601175284724358</v>
+        <v>0.005237229851511609</v>
       </c>
       <c r="D103">
-        <v>-0.01187177074200137</v>
+        <v>-0.009244280450538779</v>
       </c>
       <c r="E103">
-        <v>0.02750134536011935</v>
+        <v>-0.01923354267659619</v>
       </c>
       <c r="F103">
-        <v>-0.009940292182064528</v>
+        <v>-0.02473983580538096</v>
       </c>
       <c r="G103">
-        <v>0.02067399612675477</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0166075302324932</v>
+      </c>
+      <c r="H103">
+        <v>0.01227380026319074</v>
+      </c>
+      <c r="I103">
+        <v>-0.02812484240117167</v>
+      </c>
+      <c r="J103">
+        <v>-0.01344428332576289</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
